--- a/env/MemoryLayout.xlsx
+++ b/env/MemoryLayout.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Memory map" sheetId="1" r:id="rId1"/>
+    <sheet name="1115 Memory map" sheetId="3" r:id="rId1"/>
+    <sheet name="Memory map" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="48">
   <si>
     <t>0x00000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +137,85 @@
   </si>
   <si>
     <t>Retention(8K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_STARTUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_BLE_JUMP_TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_IMAGE_RO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_IMAGE_RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_STARTUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_IMAGE_RO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bootloader execution period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application execution period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_IMAGE_ZI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLE_JUMP_TABLE_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20017C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1003F000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_IMAGE_RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_IMAGE_ZI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bootloader
+(64K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application
+(Max 188K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_SETTINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL Settings
+(4K)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +257,28 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +309,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -305,11 +447,466 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -338,12 +935,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -381,9 +972,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -410,6 +998,238 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,60 +1510,712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32142B7F-5309-4929-BFEF-77EF1E9CC49C}">
+  <dimension ref="B1:Q30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="2" customWidth="1"/>
+    <col min="13" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="17.140625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="73"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="74"/>
+    </row>
+    <row r="2" spans="2:17" s="25" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="132"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="59"/>
+    </row>
+    <row r="3" spans="2:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="75"/>
+      <c r="G3" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="60"/>
+    </row>
+    <row r="4" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="N4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="60"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="60"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+    </row>
+    <row r="7" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="60"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="2:17" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="92"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="60"/>
+    </row>
+    <row r="9" spans="2:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="135" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="86"/>
+      <c r="N10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+    </row>
+    <row r="11" spans="2:17" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="86"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+    </row>
+    <row r="12" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="86"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+    </row>
+    <row r="13" spans="2:17" s="6" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="86"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="2:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="2:17" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="87"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+    </row>
+    <row r="16" spans="2:17" s="6" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="87"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="2:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="2:17" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="88"/>
+    </row>
+    <row r="19" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="80"/>
+      <c r="G19" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="65"/>
+    </row>
+    <row r="20" spans="2:17" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="81"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="65"/>
+      <c r="N20" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+    </row>
+    <row r="21" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="66"/>
+      <c r="G21" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="65"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+    </row>
+    <row r="22" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="66"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="65"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+    </row>
+    <row r="23" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="65"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+    </row>
+    <row r="24" spans="2:17" s="8" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="65"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="2:17" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="65"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="2:17" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="145" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="65"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="2:17" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="98"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="65"/>
+    </row>
+    <row r="28" spans="2:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="31"/>
+      <c r="D28" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="84"/>
+      <c r="G28" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="68"/>
+      <c r="N28" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+    </row>
+    <row r="29" spans="2:17" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="69"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="71"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+    </row>
+    <row r="30" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N4:Q7"/>
+    <mergeCell ref="N10:Q12"/>
+    <mergeCell ref="N20:Q23"/>
+    <mergeCell ref="N28:Q29"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" style="2" customWidth="1"/>
     <col min="8" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="17.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="27" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="2:13" s="25" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
+    <row r="3" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="12" t="s">
         <v>2</v>
@@ -760,214 +2232,214 @@
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="19"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="17"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="37"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="34"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="37"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="2:13" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="22"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
+      <c r="G7" s="34"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="2:13" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
       <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="41" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="38" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="38"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="5"/>
       <c r="G11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="38"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="38"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:13" s="6" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="G12" s="35"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="2:13" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="30"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="38"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="38"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-    </row>
-    <row r="14" spans="2:13" s="6" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="G13" s="35"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="2:13" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="30"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="38"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="38"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="35"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="2:13" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="30"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="38"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="38"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="35"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="2:13" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="30"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="38"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="38"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="17" spans="2:13" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="2:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="D18" s="31" t="s">
+      <c r="G16" s="35"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="2:13" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="D18" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="39" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="14" t="s">
@@ -979,12 +2451,12 @@
       <c r="G20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="14" t="s">
@@ -994,63 +2466,63 @@
       <c r="G21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="39"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-    </row>
-    <row r="23" spans="2:13" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="G22" s="36"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="2:13" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="39"/>
-    </row>
-    <row r="24" spans="2:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="33"/>
-      <c r="D24" s="33" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="D24" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="41" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-    </row>
-    <row r="25" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+    </row>
+    <row r="25" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
